--- a/protocols/Transgenics_Microinjection_Crosses/C elegans DNA injections.xlsx
+++ b/protocols/Transgenics_Microinjection_Crosses/C elegans DNA injections.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="404" documentId="13_ncr:1_{F82E64D4-4298-3C40-9351-A3B5A36A47DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4465843-2DE4-BE49-9BA7-092D1E32E99D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA035622-2635-2344-A394-8E0EBCA0E547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="500" windowWidth="30980" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="760" windowWidth="30980" windowHeight="18920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jess" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>stock</t>
   </si>
@@ -239,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +306,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -424,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,6 +488,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,7 +802,7 @@
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1289,14 +1299,20 @@
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="32">
-        <f>H20-E21-E23-E22</f>
-        <v>0.14218946106438202</v>
+        <f>H21-E22-E23</f>
+        <v>-17.488142292490117</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>80</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
@@ -1306,6 +1322,45 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>23.7</v>
+      </c>
+      <c r="E27" s="8">
+        <f>(F27*H25)/D27</f>
+        <v>2.109704641350211</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" s="8">
+        <f>(F28*H25)/D28</f>
+        <v>15.6</v>
+      </c>
+      <c r="F28" s="34">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="32">
+        <f>H25-E27-E28</f>
+        <v>2.2902953586497876</v>
+      </c>
+    </row>
     <row r="32" spans="1:25" ht="23" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
@@ -1352,7 +1407,7 @@
       <c r="C58" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I13 I15:I18 I28:I1048576 I20:I24">
+  <conditionalFormatting sqref="I1:I13 I15:I18 I20:I24 I28:I1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
